--- a/va_facility_data_2025-02-20/Stuart VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stuart%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Stuart VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Stuart%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R35699ec84fe2446ab674f9b0560bcfbc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7d055527e0ac44919a4e696a1b29a1aa"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R04b2d980f0dd4dcf99ef55cd9fa7bb93"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9819aa5013e249a8aefe4d98d523ada0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R85ab41c061564561be073bb274b38986"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3b29d5160376448d96425a1cff5128ac"/>
   </x:sheets>
 </x:workbook>
 </file>
